--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583684B2-E224-4BB2-BF40-2BAD2FE842C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126B895-B5CB-4309-BAF1-26A5C909B8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2475" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -305,50 +305,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,6 +368,456 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2505944</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>86799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EB67E9-1F93-6CEB-E1C2-E35FFCDC6A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="2352675"/>
+          <a:ext cx="6230219" cy="7697274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1772417</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F726AF36-FAE4-6D6F-9B91-E2E636D30F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="10125075"/>
+          <a:ext cx="5496692" cy="5258534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58870</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>124272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F3A5A4-0F11-D8EB-8B58-B362B95FBC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="15468600"/>
+          <a:ext cx="12327070" cy="3200847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449055</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A44749-BA60-9BAE-9C89-79DA9716CDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="2514600"/>
+          <a:ext cx="9888330" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20765</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97CDA42-D199-9762-65BA-F594D8BD34D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5429250"/>
+          <a:ext cx="12288965" cy="4391638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430397</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>10340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130D7B08-876A-25CB-88C8-2A606302F2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="9963150"/>
+          <a:ext cx="12698597" cy="5839640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39818</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>124995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1511E566-FA64-B256-2C55-94C5CC2DE021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="15954375"/>
+          <a:ext cx="12308018" cy="8383170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11239</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8743AE-97D4-4EC6-BB0A-795B02A7AE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="24536400"/>
+          <a:ext cx="12279439" cy="7125694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58870</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>124995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91F34E3-F3F6-B128-4D90-2B102FCE4ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="31823025"/>
+          <a:ext cx="12327070" cy="8383170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20765</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>153122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7591DE41-A538-C02C-A04E-C37DA1012FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="40405050"/>
+          <a:ext cx="12288965" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,119 +1204,126 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -873,13 +1333,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -891,11 +1344,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -910,59 +1363,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="22">
+      <c r="B2" s="27"/>
+      <c r="C2" s="17">
         <f>'Test Cases'!A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="22" t="str">
+      <c r="B3" s="27"/>
+      <c r="C3" s="17" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing: eCate Update Matrix Options jobs</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="27"/>
+      <c r="C4" s="17" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -974,20 +1427,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1002,37 +1455,46 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -1044,13 +1506,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1058,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC91C93D-5F4F-456F-9342-50B601DCC8BB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,59 +1535,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="22">
+      <c r="B2" s="27"/>
+      <c r="C2" s="17">
         <f>'Test Cases'!A3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="22" t="str">
+      <c r="B3" s="27"/>
+      <c r="C3" s="17" t="str">
         <f>'Test Cases'!B3</f>
         <v>unit testing: archive process</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="27"/>
+      <c r="C4" s="17" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1138,20 +1599,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1166,42 +1627,37 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -1210,21 +1666,33 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -1455,30 +1923,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1497,21 +1970,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126B895-B5CB-4309-BAF1-26A5C909B8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AAF39-E689-4E1B-9DDF-492C92FE1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Test Case #</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>unit testing: eCat Update Matrix Options jobs</t>
+  </si>
+  <si>
+    <t>Testing Views</t>
   </si>
 </sst>
 </file>
@@ -305,39 +308,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -349,9 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,6 +499,182 @@
         <a:xfrm>
           <a:off x="95250" y="15468600"/>
           <a:ext cx="12327070" cy="3200847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2639201</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E8E331-7DCA-7230-40D0-2A22D7BF0E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="19078575"/>
+          <a:ext cx="5563376" cy="4839375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277082</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBFEF0-78A8-001C-C39B-E8511707D9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="24050625"/>
+          <a:ext cx="6144482" cy="5020376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172293</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>143573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E1E751-9401-D1BF-C482-795CEAF07300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="29232225"/>
+          <a:ext cx="6039693" cy="5001323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162767</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>124498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B20F079-E2AF-220D-61E9-7A99A6DEF72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="34413825"/>
+          <a:ext cx="6030167" cy="4820323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,126 +1383,119 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1333,6 +1505,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1344,11 +1523,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1363,59 +1542,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="17">
+      <c r="B2" s="28"/>
+      <c r="C2" s="23">
         <f>'Test Cases'!A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="17" t="str">
+      <c r="B3" s="28"/>
+      <c r="C3" s="23" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing: eCate Update Matrix Options jobs</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="17" t="str">
+      <c r="B4" s="28"/>
+      <c r="C4" s="23" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1437,10 +1616,10 @@
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1475,29 +1654,29 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1505,6 +1684,11 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1519,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC91C93D-5F4F-456F-9342-50B601DCC8BB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
+    <sheetView topLeftCell="A216" workbookViewId="0">
       <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
@@ -1535,59 +1719,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="17">
+      <c r="B2" s="28"/>
+      <c r="C2" s="23">
         <f>'Test Cases'!A3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="17" t="str">
+      <c r="B3" s="28"/>
+      <c r="C3" s="23" t="str">
         <f>'Test Cases'!B3</f>
         <v>unit testing: archive process</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="17" t="str">
+      <c r="B4" s="28"/>
+      <c r="C4" s="23" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1609,10 +1793,10 @@
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1647,14 +1831,14 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1678,21 +1862,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -1923,35 +2101,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1970,10 +2143,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AAF39-E689-4E1B-9DDF-492C92FE1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47905E3B-4545-4656-9E44-3878E336145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1425" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Test Case #</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Testing Views</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -311,44 +314,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1000,9 +1003,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1040,9 +1043,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,26 +1078,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1127,26 +1113,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1383,119 +1352,126 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1505,13 +1481,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1523,11 +1492,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,59 +1511,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="23">
+      <c r="B2" s="26"/>
+      <c r="C2" s="18">
         <f>'Test Cases'!A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="18" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing: eCate Update Matrix Options jobs</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23" t="str">
+      <c r="B4" s="26"/>
+      <c r="C4" s="18" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1606,14 +1575,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
@@ -1634,34 +1603,34 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
@@ -1675,8 +1644,19 @@
         <v>37</v>
       </c>
     </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F207" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1684,12 +1664,6 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1703,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC91C93D-5F4F-456F-9342-50B601DCC8BB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
@@ -1719,59 +1693,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="23">
+      <c r="B2" s="26"/>
+      <c r="C2" s="18">
         <f>'Test Cases'!A3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="18" t="str">
         <f>'Test Cases'!B3</f>
         <v>unit testing: archive process</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23" t="str">
+      <c r="B4" s="26"/>
+      <c r="C4" s="18" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1783,14 +1757,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
@@ -1811,34 +1785,34 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1862,15 +1836,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -2101,30 +2081,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2143,21 +2128,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47905E3B-4545-4656-9E44-3878E336145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88DA4D-F116-4A55-B201-EFA49CDD5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1425" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Test Case #</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Testing stock code SCH-1003-QS and SCH-1005-QS</t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>Option Changes</t>
   </si>
 </sst>
 </file>
@@ -267,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -314,32 +326,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -347,18 +371,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,22 +526,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2639201</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>29250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564517</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>58243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E8E331-7DCA-7230-40D0-2A22D7BF0E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC60519B-111E-B457-B04A-EC345D812E0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,8 +557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="19078575"/>
-          <a:ext cx="5563376" cy="4839375"/>
+          <a:off x="809625" y="19354800"/>
+          <a:ext cx="18214342" cy="7830643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,21 +571,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>277082</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>701</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1667528</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>19505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBFEF0-78A8-001C-C39B-E8511707D9C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C38E21-9512-A666-6D54-113B2EBC9E37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,8 +601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="24050625"/>
-          <a:ext cx="6144482" cy="5020376"/>
+          <a:off x="809625" y="27774900"/>
+          <a:ext cx="4677428" cy="3258005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,21 +615,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>172293</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>143573</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564517</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>105965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E1E751-9401-D1BF-C482-795CEAF07300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2E1B65-9320-BD9E-2436-F7167B90ECEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,52 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="29232225"/>
-          <a:ext cx="6039693" cy="5001323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>162767</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>124498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B20F079-E2AF-220D-61E9-7A99A6DEF72D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="34413825"/>
-          <a:ext cx="6030167" cy="4820323"/>
+          <a:off x="809625" y="31337250"/>
+          <a:ext cx="18214342" cy="8526065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,126 +1321,119 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1481,6 +1443,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1495,8 +1464,8 @@
   <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
+      <pane ySplit="5" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1511,59 +1480,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="18">
+      <c r="B2" s="30"/>
+      <c r="C2" s="23">
         <f>'Test Cases'!A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="18" t="str">
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing: eCate Update Matrix Options jobs</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="18" t="str">
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1575,20 +1544,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1603,34 +1572,34 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
@@ -1639,24 +1608,39 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C167" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E201" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F207" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1664,6 +1648,12 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1693,59 +1683,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="18">
+      <c r="B2" s="30"/>
+      <c r="C2" s="23">
         <f>'Test Cases'!A3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="18" t="str">
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="str">
         <f>'Test Cases'!B3</f>
         <v>unit testing: archive process</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="18" t="str">
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) ssms</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1757,20 +1747,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1785,34 +1775,34 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1836,21 +1826,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -2081,35 +2065,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2128,10 +2107,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88DA4D-F116-4A55-B201-EFA49CDD5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187F6ED-074A-4693-AABB-9816DD092E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 35667 - OptionGroupToProduct new column/Test Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 35667 - OptionGroupToProduct new column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187F6ED-074A-4693-AABB-9816DD092E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AAF39-E689-4E1B-9DDF-492C92FE1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Test Case #</t>
   </si>
@@ -151,21 +151,6 @@
   </si>
   <si>
     <t>Testing Views</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Testing stock code SCH-1003-QS and SCH-1005-QS</t>
-  </si>
-  <si>
-    <t>No changes</t>
-  </si>
-  <si>
-    <t>Option Changes</t>
   </si>
 </sst>
 </file>
@@ -279,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -359,19 +344,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,22 +510,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>564517</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>58243</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2639201</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC60519B-111E-B457-B04A-EC345D812E0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E8E331-7DCA-7230-40D0-2A22D7BF0E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,8 +541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="19354800"/>
-          <a:ext cx="18214342" cy="7830643"/>
+          <a:off x="895350" y="19078575"/>
+          <a:ext cx="5563376" cy="4839375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,21 +555,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1667528</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>19505</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277082</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C38E21-9512-A666-6D54-113B2EBC9E37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBFEF0-78A8-001C-C39B-E8511707D9C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,8 +585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="27774900"/>
-          <a:ext cx="4677428" cy="3258005"/>
+          <a:off x="809625" y="24050625"/>
+          <a:ext cx="6144482" cy="5020376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,21 +599,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>564517</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>105965</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172293</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>143573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2E1B65-9320-BD9E-2436-F7167B90ECEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E1E751-9401-D1BF-C482-795CEAF07300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,8 +629,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="31337250"/>
-          <a:ext cx="18214342" cy="8526065"/>
+          <a:off x="809625" y="29232225"/>
+          <a:ext cx="6039693" cy="5001323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162767</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>124498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B20F079-E2AF-220D-61E9-7A99A6DEF72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="34413825"/>
+          <a:ext cx="6030167" cy="4820323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,9 +1000,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1012,9 +1040,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,9 +1075,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,9 +1127,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1461,11 +1523,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1486,13 +1548,13 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="29"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="23">
         <f>'Test Cases'!A2</f>
         <v>1</v>
@@ -1502,10 +1564,10 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="23" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing: eCate Update Matrix Options jobs</v>
@@ -1515,10 +1577,10 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="23" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms</v>
@@ -1554,10 +1616,10 @@
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1608,35 +1670,9 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C167" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E201" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F207" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC91C93D-5F4F-456F-9342-50B601DCC8BB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A216" workbookViewId="0">
       <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
@@ -1689,13 +1725,13 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="29"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="23">
         <f>'Test Cases'!A3</f>
         <v>2</v>
@@ -1705,10 +1741,10 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="23" t="str">
         <f>'Test Cases'!B3</f>
         <v>unit testing: archive process</v>
@@ -1718,10 +1754,10 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="23" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) ssms</v>
@@ -1757,10 +1793,10 @@
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
